--- a/MultiPage App/datos/asistencias_filtro.xlsx
+++ b/MultiPage App/datos/asistencias_filtro.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +479,3168 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>250300910@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gustavo Alberto Perez Cen</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45926.63681712963</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>250301000@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Julian Maximiliano Hernández Loria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45926.6365162037</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>230300965@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Melina Alejandra Yañez Rodriguez</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45926.63616898148</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>250300948@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Xochitl Andrea Marin Estrella</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45926.63609953703</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090300161@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mario Alberto Contreras Estrada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45926.63608796296</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>250300905@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Andrea Valeria Mendoza Cuevas</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45926.6352662037</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>250300945@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jesús Adrián Hernández Clila</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45926.63520833333</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>250300952@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Diego Salvador Hernandez Estrada</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45926.63475694445</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>210300644@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>José Armando Domenzain González</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45926.63449074074</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>230300926@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Loany De los Angeles Rosado Rosado</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45926.63440972222</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>250300900@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Derek Alexander Mejia Cid</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45926.63438657407</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>250300942@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alexis Uriel Vieyra Alvarez</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45926.63436342592</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>250300855@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dulce Victoria Prado Olivares</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45926.63428240741</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240300873@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JOSÉ GILBERTO CANO GREENE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45926.63418981482</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>230300833@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>José Emiiio Bacab Cuxim</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45926.63416666666</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240300882@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ariana  Guelmes Sanchez</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45926.63412037037</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>220300890@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Matteo  Castán Borja</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45926.63385416667</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>230300927@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Angel David Victoriano Can</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45926.63383101852</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>220300847@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Jesus Fernando Serrano Guzman</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45926.63366898148</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240300896@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Francisco Javier López Hernández</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45926.63363425926</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>250300901@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>José Francisco Poot Hernández</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45926.63348379629</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>240300886@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>José Alejandro Dueñas Clara</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45926.63331018519</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240300890@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Diego Armando Hernandez Lopez</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45926.63318287037</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>230300924@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Diego  Ubaldo Gomez</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45926.63311342592</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240301073@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Michael Oswaldo Perez Sánchez</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45926.63311342592</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>230300931@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Vanessa  Muñoz Romero</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45926.63309027778</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>250300908@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Victoriano  May May</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45926.63303240741</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>230300923@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SAMANTHA DE JESUS GARCIA MORALES</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45926.63280092592</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lramirez@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Leslye Johanna Ramírez Carmona</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45926.63269675926</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240300903@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Keren Jaquelin Alvarez Luis</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45926.63267361111</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>230300853@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Keyla Monserrath Gomes Mejia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45926.63258101852</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>250301077@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Diego Jeronimo Alcocer Ricardez</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45926.63247685185</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>230300931@ucatibe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Vanessa  Muñoz Romero</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45926.63241898148</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>230300856@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Jessica Alejandra Negroe González</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45926.63240740741</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>230300970@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Clío Aranzazú Mercado Infante</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45926.63230324074</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>230300912@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Isaac Alejandro Morga De la Cruz</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45926.63228009259</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>230300540@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ana Paola López González</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45926.6322337963</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>230300930@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Deysi Maciel Domínguez Jiménez</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45926.63221064815</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>magarcia@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Miriam Angélica García Rivera</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45926.63214120371</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>200300595@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Emmanuel  Garcia Peñaloza</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45926.63211805555</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>220300886@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mauricio Montero Montero Martin</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45926.63207175926</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>230300868@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Angel De Jesús Fernandez Soro</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45926.63207175926</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>230300854@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ezquiel Isaias Martinez Yam</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45926.63204861111</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>edgarole11@gmail.com</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Edgar  Rodríguez López</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45926.63204861111</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>220300876@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Jorge Alberto Loria Chimal</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45926.63203703704</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>230300907@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>VICTOR OMAR JUAREZ ESCOBEDO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45926.63202546296</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>230300890@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Celeste Jazmin Chulin Arredondo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45926.63201388889</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>230300932@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Zuri Sarahí Álvarez Hernández</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45926.63200231481</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>230300962@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Adolfo  Martínez Romero</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45926.63200231481</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>230300956@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Zuñigan Leon Héctor Julián</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45926.63199074074</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>230300880@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Saul  Nahuat Alvarado</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45926.63197916667</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>999</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>240300875@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Pamela  Yzquierdo Guillén</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45926.63194444445</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>230300889@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Carlos Mijail Zea González</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45926.63194444445</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>998</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>230300876@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>José Manuel Concepción Castro Tamay</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45926.63193287037</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>997</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>250300916@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>America Sarahi Lavadores May</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45926.631875</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>996</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>220300860@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Jose Antonio Arevalo Barrientos</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45926.63186342592</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>995</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>220300837@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Oavndo Mendez</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45926.63185185185</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>993</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>210300603@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Guadalupe Azucena Rodriguez Cauich</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45926.63182870371</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>994</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>220300868@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Juan Diego Estañol Noh</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45926.63182870371</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>992</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>jvirgen@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Jarmen Said Virgen Suarez</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45926.63180555555</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>991</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>220300855@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jose Eduardo Ake Basto</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45926.63175925926</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>990</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>250301012@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Axel Rigoberto Rivera Benitez</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45926.63168981481</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>989</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>250301083@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>José Antonio Huchin De la cruz</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45926.63164351852</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>988</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>230300892@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vanessa Regina Álvarez Hernández</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45926.63162037037</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>987</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>240300926@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gabriel  Sanchez Maldonado</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45926.62849537037</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>986</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>240300973@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ariana Guadalupe Vargas Burgos</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45926.62822916666</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>985</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>240300925@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Anai  Baltazar Vasquez</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45926.62815972222</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>984</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>240300930@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Joel David Cupul Canche</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45926.62814814815</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>983</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>240300908@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Valeria  Trujillo Plata</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45926.62805555556</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>982</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>240300902@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Oscar Daniel Baltazar Vasquez</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45926.62803240741</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>981</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>240300924@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Dahiana Michelle Vázquez Villa</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45926.62799768519</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>980</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>220300875@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jesús Daniel Ochoa Steck</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45926.62577546296</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>979</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>220300838@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Lizeth Estephany May Itza</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45926.62574074074</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>978</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>250300922@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Leonardo Emmanuel Sánchez González</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45926.62533564815</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>977</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>250300960@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Oscar Emilio Gómez Aguilar</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45926.62525462963</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>976</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>250300966@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Zaira Melissa Matias Vazquez</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45926.6216087963</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>975</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>250301075@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cielo  Cruz Pineda</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45926.62109953703</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>974</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>250300936@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Franselia Ivonne Gómez Trinidad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45926.62085648148</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>973</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>jperez@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Juan Felipe Pérez Vázquez</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45926.6208449074</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>972</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>230300917@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Aldo Alejandro Melquiades Méndez</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45926.6203125</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>971</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>240300897@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Christopher Abisair Mendez Loria</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45926.62020833333</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>970</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>230300925@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Diego  Castañeda Ortega</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45926.61890046296</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>969</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>210300595@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rafael Andrés Hernández Mena</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45926.61825231482</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>967</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>230300922@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Erick Abraham Carrillo Rosales</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45926.61785879629</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>968</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>210300641@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Saul Alexander Vivas Canche</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45926.61785879629</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>966</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>220300771@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ricardo  Rodriguez Acosta</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45926.61762731482</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>965</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>210300657@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mitzuri  Penagos Gonzalez</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45926.61756944445</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>963</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>220300883@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>EFREN ALONSO GARCIA PADILLA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45926.61744212963</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>964</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>220300879@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Axel Javier Flores Chan</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45926.61744212963</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>962</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>210300588@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Selmy Karina Tuz Tah</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45926.61715277778</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>961</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>210300653@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Alexis Alberto Martínez Ávila</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45926.6171412037</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>960</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>220300852@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Samuel Baltazar Manzanilla Naal</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45926.61530092593</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>959</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>220300865@ucaribe.edu.mx</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Aixa Guadalupe Mena Soto</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CL1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45926.61474537037</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
